--- a/RatingScore.xlsx
+++ b/RatingScore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D56A8D-3FD5-4886-AB6F-6FAC23E2192E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D4F5EE-0EC2-41A1-B0A5-8FAF098B7784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>Agency</t>
+  </si>
+  <si>
+    <t>BBB *-</t>
+  </si>
+  <si>
+    <t>Added by Steven Zhang, needs to confirm with Daphne</t>
+  </si>
+  <si>
+    <t>Caa1u</t>
+  </si>
+  <si>
+    <t>B1u</t>
   </si>
 </sst>
 </file>
@@ -287,12 +299,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -307,9 +325,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,15 +609,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -609,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -631,7 +650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -642,7 +661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -653,7 +672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -664,7 +683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -675,7 +694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -686,7 +705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -697,7 +716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -708,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -719,7 +738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -730,7 +749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -741,7 +760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -752,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -763,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -774,7 +793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -785,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -796,7 +815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -807,7 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -818,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -829,7 +848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -840,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -851,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -862,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -873,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -884,7 +903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -895,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -906,7 +925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -917,7 +936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -928,7 +947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -939,7 +958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -950,7 +969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -961,7 +980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -972,7 +991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -994,7 +1013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1082,610 +1101,663 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="2">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
         <v>37</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
         <v>39</v>
       </c>
-      <c r="C48">
+      <c r="C50">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
         <v>41</v>
       </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
         <v>43</v>
       </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
         <v>44</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
         <v>46</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
         <v>48</v>
       </c>
-      <c r="C53">
+      <c r="C55">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
         <v>50</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
         <v>52</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="C58">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
         <v>57</v>
       </c>
-      <c r="C57">
+      <c r="C59">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="C58">
+      <c r="C60">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="C59">
+      <c r="C61">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
         <v>65</v>
       </c>
-      <c r="C60">
+      <c r="C62">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
         <v>67</v>
       </c>
-      <c r="C61">
+      <c r="C63">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
         <v>4</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
         <v>6</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C65">
+      <c r="C67">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
         <v>12</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="C68">
+      <c r="C70">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
         <v>18</v>
       </c>
-      <c r="C69">
+      <c r="C71">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
         <v>20</v>
       </c>
-      <c r="C70">
+      <c r="C72">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
         <v>22</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
         <v>24</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
         <v>26</v>
       </c>
-      <c r="C73">
+      <c r="C75">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
         <v>28</v>
       </c>
-      <c r="C74">
+      <c r="C76">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
         <v>30</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
         <v>32</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
         <v>34</v>
       </c>
-      <c r="C77">
+      <c r="C79">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
         <v>36</v>
       </c>
-      <c r="C78">
+      <c r="C80">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
         <v>38</v>
       </c>
-      <c r="C79">
+      <c r="C81">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
         <v>40</v>
       </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
         <v>42</v>
       </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
         <v>44</v>
       </c>
-      <c r="C82">
+      <c r="C84">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
         <v>45</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
         <v>47</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
         <v>49</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
         <v>53</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
         <v>51</v>
       </c>
-      <c r="C87">
+      <c r="C89">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
         <v>58</v>
       </c>
-      <c r="C88">
+      <c r="C90">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
         <v>61</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
         <v>64</v>
       </c>
-      <c r="C90">
+      <c r="C92">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
         <v>66</v>
       </c>
-      <c r="C91">
+      <c r="C93">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
         <v>68</v>
       </c>
-      <c r="C92">
+      <c r="C94">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
         <v>69</v>
       </c>
-      <c r="C93">
+      <c r="C95">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
         <v>70</v>
       </c>
-      <c r="C94">
+      <c r="C96">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
         <v>56</v>
-      </c>
-      <c r="C95">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" t="s">
-        <v>72</v>
       </c>
       <c r="C97">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>3</v>
       </c>
       <c r="B98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
         <v>73</v>
       </c>
-      <c r="C98">
+      <c r="C100">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
         <v>74</v>
       </c>
-      <c r="C99">
+      <c r="C101">
         <v>7</v>
       </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="2">
+        <v>13</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RatingScore.xlsx
+++ b/RatingScore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D4F5EE-0EC2-41A1-B0A5-8FAF098B7784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA997649-D8F8-441F-B95B-D839C4461FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31890" yWindow="390" windowWidth="21960" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -269,13 +269,16 @@
     <t>BBB *-</t>
   </si>
   <si>
-    <t>Added by Steven Zhang, needs to confirm with Daphne</t>
-  </si>
-  <si>
     <t>Caa1u</t>
   </si>
   <si>
     <t>B1u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In recent years, Moody’s added “u”  or “e” identifier to express additional meanings on their ratings. These identifiers do not change the associated rating score actually. </t>
+  </si>
+  <si>
+    <t>Same as "BBB"</t>
   </si>
 </sst>
 </file>
@@ -299,18 +302,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -328,7 +325,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,15 +606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -628,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -650,7 +647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -661,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -672,7 +669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -683,7 +680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -694,7 +691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -705,7 +702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -716,7 +713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -727,7 +724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -738,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -749,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -760,7 +757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -771,7 +768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -782,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -793,7 +790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -804,7 +801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -815,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -826,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -837,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -848,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -859,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -870,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -881,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -892,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -903,7 +900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -914,7 +911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -925,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -936,7 +933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -947,7 +944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -958,7 +955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -969,7 +966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -980,7 +977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -991,7 +988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1057,7 +1054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1101,12 +1098,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2">
         <v>8</v>
@@ -1114,11 +1111,11 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1129,7 +1126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1151,24 +1148,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="2">
         <v>5</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1201,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -1311,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +1328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1377,7 +1372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1399,7 +1394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1421,343 +1416,346 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="2">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
         <v>22</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
         <v>24</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
         <v>26</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
         <v>28</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
         <v>30</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
         <v>32</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
         <v>34</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
         <v>36</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
         <v>38</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
         <v>40</v>
       </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
         <v>42</v>
       </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
         <v>44</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
         <v>45</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
         <v>47</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
         <v>49</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
         <v>53</v>
-      </c>
-      <c r="C88">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" t="s">
-        <v>51</v>
       </c>
       <c r="C89">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
         <v>58</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
         <v>61</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
         <v>64</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
         <v>66</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
         <v>68</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
         <v>69</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
         <v>70</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
         <v>56</v>
-      </c>
-      <c r="C97">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" t="s">
-        <v>71</v>
       </c>
       <c r="C98">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C99">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
       <c r="B100" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
         <v>73</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
         <v>74</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" s="2">
-        <v>13</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RatingScore.xlsx
+++ b/RatingScore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA997649-D8F8-441F-B95B-D839C4461FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C67CE-8DD4-4254-9DB3-B2108F1EC4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31890" yWindow="390" windowWidth="21960" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="825" windowWidth="21960" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="99">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -279,6 +279,57 @@
   </si>
   <si>
     <t>Same as "BBB"</t>
+  </si>
+  <si>
+    <t>BBBu</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Same as "A"</t>
+  </si>
+  <si>
+    <t>Guessed by Steven, to be confirmed</t>
+  </si>
+  <si>
+    <t>F1+</t>
+  </si>
+  <si>
+    <t>F1+u</t>
+  </si>
+  <si>
+    <t>BBB+u</t>
+  </si>
+  <si>
+    <t>A+ *-</t>
+  </si>
+  <si>
+    <t>A- *-</t>
+  </si>
+  <si>
+    <t>A *-</t>
+  </si>
+  <si>
+    <t>A1u</t>
+  </si>
+  <si>
+    <t>A+u</t>
+  </si>
+  <si>
+    <t>A3 *+</t>
+  </si>
+  <si>
+    <t>AA- *-</t>
+  </si>
+  <si>
+    <t>A1 *-</t>
+  </si>
+  <si>
+    <t>BBB-u</t>
+  </si>
+  <si>
+    <t>A3u</t>
   </si>
 </sst>
 </file>
@@ -302,12 +353,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -322,10 +379,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,15 +664,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -625,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -636,7 +694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -647,7 +705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -658,7 +716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -669,125 +727,128 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -883,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -894,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,229 +1021,231 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
         <v>13</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C36">
+      <c r="C39">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
         <v>17</v>
       </c>
-      <c r="C37">
+      <c r="C40">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
         <v>19</v>
       </c>
-      <c r="C38">
+      <c r="C43">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
         <v>21</v>
       </c>
-      <c r="C39">
+      <c r="C44">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
         <v>23</v>
       </c>
-      <c r="C40">
+      <c r="C45">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="C41">
+      <c r="C46">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
         <v>27</v>
       </c>
-      <c r="C42">
+      <c r="C47">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
         <v>29</v>
       </c>
-      <c r="C43">
+      <c r="C48">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
         <v>31</v>
       </c>
-      <c r="C44">
+      <c r="C49">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C50" s="2">
         <v>8</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="2">
-        <v>5</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,10 +1253,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1201,32 +1264,36 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C55">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1234,10 +1301,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1245,10 +1312,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1256,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1267,10 +1334,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1278,10 +1345,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1289,10 +1356,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,10 +1367,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,76 +1378,79 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1388,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,10 +1469,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1410,24 +1480,21 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="2">
-        <v>13</v>
-      </c>
-      <c r="F73" t="s">
-        <v>81</v>
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,10 +1502,10 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,10 +1513,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,10 +1524,13 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1468,10 +1538,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,10 +1549,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1490,10 +1560,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,261 +1571,469 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="2">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
         <v>34</v>
       </c>
-      <c r="C80">
+      <c r="C90">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
         <v>36</v>
       </c>
-      <c r="C81">
+      <c r="C91">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
         <v>38</v>
       </c>
-      <c r="C82">
+      <c r="C92">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
         <v>40</v>
       </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
         <v>42</v>
       </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
         <v>44</v>
       </c>
-      <c r="C85">
+      <c r="C95">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
         <v>45</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
         <v>47</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
         <v>49</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99">
+        <v>17</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100">
+        <v>17</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101">
+        <v>16</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
         <v>53</v>
       </c>
-      <c r="C89">
+      <c r="C103">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
         <v>51</v>
       </c>
-      <c r="C90">
+      <c r="C104">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
         <v>58</v>
       </c>
-      <c r="C91">
+      <c r="C105">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
         <v>61</v>
       </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
         <v>64</v>
       </c>
-      <c r="C93">
+      <c r="C107">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
         <v>66</v>
       </c>
-      <c r="C94">
+      <c r="C108">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
         <v>68</v>
       </c>
-      <c r="C95">
+      <c r="C109">
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
         <v>69</v>
       </c>
-      <c r="C96">
+      <c r="C110">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
         <v>70</v>
       </c>
-      <c r="C97">
+      <c r="C111">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
         <v>56</v>
       </c>
-      <c r="C98">
+      <c r="C112">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
         <v>71</v>
       </c>
-      <c r="C99">
+      <c r="C113">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
         <v>72</v>
       </c>
-      <c r="C100">
+      <c r="C114">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
         <v>73</v>
       </c>
-      <c r="C101">
+      <c r="C115">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
         <v>74</v>
       </c>
-      <c r="C102">
+      <c r="C116">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RatingScore.xlsx
+++ b/RatingScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C67CE-8DD4-4254-9DB3-B2108F1EC4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2514F-E1A3-437E-A1FC-63F8790F6F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="825" windowWidth="21960" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="100">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>A3u</t>
+  </si>
+  <si>
+    <t>B3 *-</t>
   </si>
 </sst>
 </file>
@@ -664,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,47 +1267,47 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="2" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>5</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1312,10 +1315,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1323,10 +1326,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1334,10 +1337,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1345,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1356,10 +1359,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1367,10 +1370,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1378,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1389,10 +1392,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,10 +1403,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,10 +1414,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1422,10 +1425,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,10 +1436,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,24 +1447,24 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C70">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,10 +1472,10 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1480,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,10 +1494,10 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1502,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,10 +1516,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,24 +1527,24 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C76">
         <v>16</v>
       </c>
-      <c r="F76" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
       <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77">
         <v>16</v>
       </c>
-      <c r="C77">
-        <v>15</v>
+      <c r="F77" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1560,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="C79">
         <v>14</v>
@@ -1571,10 +1574,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,23 +1585,20 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C81">
         <v>13</v>
       </c>
-      <c r="F81" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="2">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82">
         <v>13</v>
       </c>
       <c r="F82" t="s">
@@ -1606,14 +1606,17 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83">
-        <v>12</v>
+      <c r="A83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="2">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -1621,24 +1624,24 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="C84">
         <v>12</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C85">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,10 +1660,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,10 +1682,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -1690,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,10 +1704,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,10 +1715,10 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,10 +1726,10 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,10 +1748,10 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1756,10 +1759,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -1767,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1778,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1789,13 +1792,10 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C99">
-        <v>17</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C100">
         <v>17</v>
@@ -1811,18 +1811,16 @@
       <c r="E100" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>85</v>
@@ -1835,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C102">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>85</v>
@@ -1851,18 +1849,23 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C103">
         <v>15</v>
       </c>
+      <c r="E103" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C104">
         <v>15</v>
@@ -1873,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -1884,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -1895,10 +1898,10 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C107">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -1906,10 +1909,10 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C108">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -1917,10 +1920,10 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C109">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C110">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -1939,10 +1942,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C112">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -1961,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C113">
         <v>9</v>
@@ -1972,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C114">
         <v>9</v>
@@ -1983,10 +1986,10 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C115">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -1994,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -2005,35 +2008,46 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
+      <c r="D118" s="2"/>
       <c r="E118" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RatingScore.xlsx
+++ b/RatingScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2514F-E1A3-437E-A1FC-63F8790F6F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6455B-BA51-4179-BBCD-3E42E5092195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="98">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -278,21 +278,12 @@
     <t xml:space="preserve">In recent years, Moody’s added “u”  or “e” identifier to express additional meanings on their ratings. These identifiers do not change the associated rating score actually. </t>
   </si>
   <si>
-    <t>Same as "BBB"</t>
-  </si>
-  <si>
     <t>BBBu</t>
   </si>
   <si>
     <t>Au</t>
   </si>
   <si>
-    <t>Same as "A"</t>
-  </si>
-  <si>
-    <t>Guessed by Steven, to be confirmed</t>
-  </si>
-  <si>
     <t>F1+</t>
   </si>
   <si>
@@ -333,6 +324,9 @@
   </si>
   <si>
     <t>B3 *-</t>
+  </si>
+  <si>
+    <t>B- *</t>
   </si>
 </sst>
 </file>
@@ -667,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -702,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -713,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -724,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,24 +729,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -837,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,32 +1005,32 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,10 +1049,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,10 +1060,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,21 +1071,18 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>17</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38">
         <v>17</v>
@@ -1104,21 +1093,22 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C39">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -1137,24 +1127,21 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>15</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1162,21 +1149,22 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,10 +1183,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,10 +1194,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,10 +1205,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1233,12 +1221,6 @@
       <c r="C50" s="2">
         <v>8</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1256,18 +1238,24 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C52">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1278,36 +1266,32 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="2">
-        <v>5</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,21 +1299,25 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C57">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1337,10 +1325,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,10 +1336,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1359,10 +1347,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,10 +1358,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1381,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -1392,10 +1380,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,10 +1391,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1414,10 +1402,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,21 +1413,21 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68">
-        <v>8</v>
+      <c r="A68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,10 +1435,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1458,46 +1446,44 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C72">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C74">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1516,10 +1502,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1527,10 +1513,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C76">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1538,13 +1524,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C77">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1563,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C80">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C81">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,27 +1579,21 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>13</v>
-      </c>
-      <c r="F82" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="2">
-        <v>13</v>
-      </c>
-      <c r="F83" t="s">
-        <v>81</v>
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,10 +1601,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,13 +1612,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C85">
-        <v>12</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,10 +1623,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -1660,21 +1634,22 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C87">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,10 +1657,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,10 +1668,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,10 +1690,10 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,10 +1701,10 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,10 +1712,10 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -1748,10 +1723,10 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,10 +1734,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,10 +1745,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -1781,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,24 +1767,21 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100">
-        <v>17</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>85</v>
+      <c r="A100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -1817,46 +1789,35 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>17</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C102">
-        <v>16</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C103">
-        <v>15</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
@@ -1865,32 +1826,38 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C104">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C105">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C106">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -1898,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -1909,10 +1876,10 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C108">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -1920,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C109">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,10 +1898,10 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C110">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -1942,10 +1909,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C111">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -1953,10 +1920,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -1964,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C113">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -1975,10 +1942,10 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C114">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -1986,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -1997,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C116">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -2008,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -2019,37 +1986,58 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:C121">
+    <sortCondition ref="B74:B121"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RatingScore.xlsx
+++ b/RatingScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6455B-BA51-4179-BBCD-3E42E5092195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2514F-E1A3-437E-A1FC-63F8790F6F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="100">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -278,12 +278,21 @@
     <t xml:space="preserve">In recent years, Moody’s added “u”  or “e” identifier to express additional meanings on their ratings. These identifiers do not change the associated rating score actually. </t>
   </si>
   <si>
+    <t>Same as "BBB"</t>
+  </si>
+  <si>
     <t>BBBu</t>
   </si>
   <si>
     <t>Au</t>
   </si>
   <si>
+    <t>Same as "A"</t>
+  </si>
+  <si>
+    <t>Guessed by Steven, to be confirmed</t>
+  </si>
+  <si>
     <t>F1+</t>
   </si>
   <si>
@@ -324,9 +333,6 @@
   </si>
   <si>
     <t>B3 *-</t>
-  </si>
-  <si>
-    <t>B- *</t>
   </si>
 </sst>
 </file>
@@ -661,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -729,22 +735,24 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>18</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -796,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -818,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -840,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -851,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -862,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -895,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -939,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -950,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -983,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,32 +1013,32 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,10 +1046,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,10 +1057,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,10 +1068,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,18 +1079,21 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>17</v>
       </c>
+      <c r="F37" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>17</v>
@@ -1093,22 +1104,21 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>17</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
         <v>15</v>
-      </c>
-      <c r="C40">
-        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -1127,21 +1137,24 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C42">
         <v>15</v>
       </c>
+      <c r="F42" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1149,22 +1162,21 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <v>20</v>
-      </c>
-      <c r="F44" s="3"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,10 +1184,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
         <v>11</v>
-      </c>
-      <c r="C46">
-        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,10 +1195,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1194,10 +1206,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,10 +1217,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1221,6 +1233,12 @@
       <c r="C50" s="2">
         <v>8</v>
       </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1238,24 +1256,18 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1266,32 +1278,36 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55">
-        <v>11</v>
-      </c>
+      <c r="A55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1299,25 +1315,21 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C57">
-        <v>10</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,10 +1337,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1336,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1347,10 +1359,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C61">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,10 +1370,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C62">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1369,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -1380,10 +1392,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,10 +1403,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1402,10 +1414,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,21 +1425,21 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="2">
-        <v>5</v>
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,10 +1447,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,44 +1458,46 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1502,10 +1516,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,10 +1527,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,10 +1538,13 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,10 +1563,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,10 +1574,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,10 +1585,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C81">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,21 +1596,27 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C82">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83">
-        <v>20</v>
+      <c r="A83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="2">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,10 +1624,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C84">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,10 +1635,13 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C86">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,22 +1660,21 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C87">
-        <v>15</v>
-      </c>
-      <c r="F87" s="3"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,10 +1682,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,10 +1704,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -1690,10 +1715,10 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,10 +1726,10 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,10 +1748,10 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,10 +1759,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -1745,10 +1770,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,10 +1781,10 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C98">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -1767,21 +1792,24 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C99">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" s="2">
-        <v>12</v>
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>93</v>
+      </c>
+      <c r="C100">
+        <v>17</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -1789,35 +1817,46 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C101">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C102">
-        <v>14</v>
-      </c>
-      <c r="E102" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
       <c r="B103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103">
+        <v>15</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C103">
-        <v>14</v>
-      </c>
-      <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
@@ -1826,38 +1865,32 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C104">
-        <v>13</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C105">
-        <v>12</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C106">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -1865,10 +1898,10 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C107">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -1876,10 +1909,10 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -1887,10 +1920,10 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -1898,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -1909,10 +1942,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -1920,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -1931,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -1942,10 +1975,10 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -1953,10 +1986,10 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -1964,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -1975,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -1986,58 +2019,37 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" t="s">
-        <v>47</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A74:C121">
-    <sortCondition ref="B74:B121"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RatingScore.xlsx
+++ b/RatingScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA74B052-FB96-42BB-BF20-4BA0C0178D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BDF09A-29EA-4739-BA86-8C02B55BB456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Same as A+</t>
+  </si>
+  <si>
+    <t>BB-(EXP)</t>
   </si>
 </sst>
 </file>
@@ -706,15 +709,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -725,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -736,7 +739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -747,7 +750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -758,7 +761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -769,7 +772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -783,7 +786,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -794,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -805,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -816,7 +819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -827,7 +830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -838,7 +841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -849,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -860,7 +863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -871,7 +874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -882,7 +885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -893,7 +896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -904,7 +907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -915,7 +918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -929,7 +932,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -940,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -951,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -962,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -973,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -984,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -995,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1109,7 +1112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1211,7 +1214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1322,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -1366,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1384,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -1668,7 +1671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -1916,7 +1919,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -1932,7 +1935,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -1948,7 +1951,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -1981,7 +1984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -2036,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -2080,62 +2083,76 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
       <c r="B118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
         <v>73</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
         <v>74</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
         <v>86</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" t="s">
-        <v>87</v>
-      </c>
       <c r="C121">
         <v>0</v>
       </c>
+      <c r="D121" s="2"/>
       <c r="E121" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RatingScore.xlsx
+++ b/RatingScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BDF09A-29EA-4739-BA86-8C02B55BB456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40F89E7-0426-4ECF-A0C2-B1B8CBB7B6DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="116">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>BB-(EXP)</t>
+  </si>
+  <si>
+    <t>(P)B+</t>
+  </si>
+  <si>
+    <t>Caa1 *-</t>
   </si>
 </sst>
 </file>
@@ -709,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,24 +929,24 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1014,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1025,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1036,13 +1042,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -1078,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,24 +1095,27 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1128,10 +1134,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1139,10 +1145,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,10 +1156,10 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,35 +1167,35 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>17</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <v>17</v>
       </c>
+      <c r="F40" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,10 +1203,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1208,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <v>15</v>
@@ -1219,24 +1225,24 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,10 +1250,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,10 +1261,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,10 +1272,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,10 +1294,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1299,49 +1305,49 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
         <v>31</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="2" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="2">
         <v>8</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1349,72 +1355,72 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>6</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="2">
-        <v>5</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
+      <c r="A59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1422,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1433,10 +1439,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1444,10 +1450,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1455,10 +1461,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1466,10 +1472,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,13 +1483,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C66">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,13 +1494,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C67">
-        <v>9</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,10 +1505,13 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C68">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1516,10 +1519,13 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1527,10 +1533,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1538,10 +1544,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,35 +1555,35 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C73">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C76">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,10 +1613,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,10 +1624,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,13 +1635,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>16</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,10 +1646,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
         <v>16</v>
-      </c>
-      <c r="C80">
-        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,10 +1657,13 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -1676,10 +1682,10 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -1687,27 +1693,21 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85">
         <v>13</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="2">
-        <v>12</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,20 +1715,23 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87">
+      <c r="A87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="2">
         <v>12</v>
       </c>
       <c r="F87" s="3" t="s">
@@ -1740,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,10 +1754,13 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -1773,10 +1779,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -1795,10 +1801,10 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,10 +1812,10 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,10 +1823,10 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1828,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,10 +1845,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,10 +1856,10 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -1861,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,10 +1878,10 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -1883,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1894,13 +1900,10 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C102">
-        <v>17</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -1908,45 +1911,38 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C103">
-        <v>17</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C104">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
+        <v>112</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -1956,32 +1952,42 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C106">
         <v>15</v>
       </c>
+      <c r="E106" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C107">
         <v>15</v>
       </c>
+      <c r="E107" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -1989,10 +1995,10 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,10 +2006,10 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C110">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -2011,10 +2017,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -2022,10 +2028,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C112">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -2033,10 +2039,10 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C113">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -2044,10 +2050,10 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -2055,10 +2061,10 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -2066,10 +2072,10 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -2088,13 +2094,10 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C118">
-        <v>9</v>
-      </c>
-      <c r="E118" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -2102,10 +2105,10 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C119">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -2113,10 +2116,13 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -2124,35 +2130,57 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>3</v>
       </c>
       <c r="B122" t="s">
+        <v>74</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
         <v>87</v>
       </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="E122" s="3" t="s">
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RatingScore.xlsx
+++ b/RatingScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40F89E7-0426-4ECF-A0C2-B1B8CBB7B6DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E9FB73-78CC-4C46-93BC-B898E665B961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="118">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>Caa1 *-</t>
+  </si>
+  <si>
+    <t>A2 *+</t>
+  </si>
+  <si>
+    <t>A- *+</t>
   </si>
 </sst>
 </file>
@@ -715,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -852,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -863,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -885,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -918,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,24 +946,24 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -976,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -998,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1020,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1031,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1042,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1053,13 +1059,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C30">
-        <v>12</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -1095,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1109,24 +1112,27 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,10 +1140,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,10 +1162,10 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,10 +1173,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1178,35 +1184,35 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>17</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C41">
         <v>17</v>
       </c>
+      <c r="F41" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,10 +1220,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,10 +1231,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,24 +1242,21 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>15</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,10 +1264,13 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,10 +1278,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1283,10 +1289,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1294,10 +1300,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,10 +1311,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1316,63 +1322,60 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="2">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" s="2"/>
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
+      <c r="A55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="C56">
-        <v>6</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1380,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1391,58 +1394,61 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1450,10 +1456,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1461,10 +1467,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1472,10 +1478,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,10 +1489,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,10 +1500,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C67">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,13 +1511,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C68">
-        <v>8</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1519,13 +1522,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C69">
-        <v>9</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,10 +1533,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,10 +1547,13 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1555,10 +1561,10 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,10 +1572,10 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,35 +1583,35 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C75">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C76">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,10 +1619,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,10 +1641,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,10 +1652,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,13 +1663,10 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C81">
-        <v>16</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,10 +1674,10 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82">
         <v>16</v>
-      </c>
-      <c r="C82">
-        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,10 +1685,13 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C83">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,10 +1710,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C85">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,27 +1721,21 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C86">
-        <v>13</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="2">
-        <v>12</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>100</v>
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -1754,24 +1754,27 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C89">
+        <v>13</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="2">
         <v>12</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90">
-        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,10 +1782,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -1790,10 +1793,13 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="C92">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,10 +1807,10 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C93">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -1812,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,10 +1829,10 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -1845,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -1867,10 +1873,10 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -1878,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -1889,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -1900,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -1911,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -1922,13 +1928,10 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C104">
-        <v>17</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -1936,91 +1939,94 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C105">
-        <v>17</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C106">
-        <v>15</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C107">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
+        <v>112</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C108">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C109">
         <v>15</v>
       </c>
+      <c r="E109" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C110">
-        <v>8</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -2028,10 +2034,10 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C112">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -2039,10 +2045,10 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -2050,10 +2056,10 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C114">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -2061,10 +2067,10 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C115">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -2072,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -2083,10 +2089,10 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C117">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -2094,10 +2100,10 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -2105,10 +2111,10 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C119">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -2116,24 +2122,21 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="C120">
         <v>9</v>
       </c>
-      <c r="E120" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C121">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -2141,10 +2144,10 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -2152,35 +2155,71 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>3</v>
       </c>
       <c r="B124" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
         <v>87</v>
       </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="E124" s="3" t="s">
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RatingScore.xlsx
+++ b/RatingScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E9FB73-78CC-4C46-93BC-B898E665B961}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4663CF-E3FD-4531-81F8-5A8E6D00949C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="119">
   <si>
     <t>S&amp;P</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>A- *+</t>
+  </si>
+  <si>
+    <t>Baa1u</t>
   </si>
 </sst>
 </file>
@@ -721,15 +724,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -740,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -751,7 +754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -762,7 +765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -773,7 +776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -784,7 +787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -798,7 +801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -809,7 +812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -820,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -831,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -842,7 +845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -853,7 +856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -864,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -875,7 +878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -886,7 +889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -897,7 +900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -908,7 +911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -919,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -930,7 +933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -941,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -952,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -966,7 +969,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -977,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -988,7 +991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1284,698 +1287,695 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
         <v>23</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
         <v>25</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
         <v>29</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
         <v>31</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>8</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
         <v>33</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
         <v>35</v>
-      </c>
-      <c r="C57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>99</v>
       </c>
       <c r="C58">
         <v>6</v>
       </c>
-      <c r="F58" s="3" t="s">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
         <v>37</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
-        <v>115</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="2" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="2">
         <v>5</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
         <v>39</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
         <v>41</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
         <v>43</v>
       </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
         <v>44</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
         <v>46</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
         <v>48</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
         <v>50</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
         <v>52</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
         <v>55</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>8</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
         <v>57</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>9</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
         <v>60</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
         <v>63</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
         <v>65</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
         <v>67</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
         <v>4</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
         <v>6</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
         <v>8</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
         <v>10</v>
       </c>
-      <c r="C80">
+      <c r="C81">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
         <v>12</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
         <v>14</v>
-      </c>
-      <c r="C82">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
-        <v>83</v>
       </c>
       <c r="C83">
         <v>16</v>
       </c>
-      <c r="F83" s="3" t="s">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>16</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
         <v>16</v>
-      </c>
-      <c r="C84">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
-        <v>117</v>
       </c>
       <c r="C85">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3</v>
       </c>
       <c r="B86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
         <v>18</v>
-      </c>
-      <c r="C86">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
-        <v>88</v>
       </c>
       <c r="C87">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
         <v>20</v>
-      </c>
-      <c r="C88">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" t="s">
-        <v>82</v>
       </c>
       <c r="C89">
         <v>13</v>
       </c>
-      <c r="F89" s="3" t="s">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="2" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C91" s="2">
         <v>12</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
         <v>22</v>
-      </c>
-      <c r="C91">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
-        <v>97</v>
       </c>
       <c r="C92">
         <v>12</v>
       </c>
-      <c r="F92" s="3" t="s">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
         <v>24</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
         <v>26</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
         <v>28</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
         <v>30</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
         <v>32</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
         <v>34</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
         <v>36</v>
       </c>
-      <c r="C99">
+      <c r="C100">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
         <v>38</v>
       </c>
-      <c r="C100">
+      <c r="C101">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
         <v>40</v>
       </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
         <v>42</v>
       </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
         <v>44</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
         <v>45</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
         <v>47</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
         <v>49</v>
       </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
         <v>93</v>
-      </c>
-      <c r="C107">
-        <v>17</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" t="s">
-        <v>89</v>
       </c>
       <c r="C108">
         <v>17</v>
@@ -1983,31 +1983,29 @@
       <c r="E108" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C109">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C110">
         <v>15</v>
@@ -2018,208 +2016,224 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C111">
         <v>15</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E111" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C112">
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3</v>
       </c>
       <c r="B113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
         <v>58</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
         <v>61</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
         <v>64</v>
       </c>
-      <c r="C115">
+      <c r="C116">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
         <v>66</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
         <v>68</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
         <v>69</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
         <v>70</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
         <v>56</v>
       </c>
-      <c r="C120">
+      <c r="C121">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
         <v>71</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>3</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
         <v>72</v>
-      </c>
-      <c r="C122">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" t="s">
-        <v>113</v>
       </c>
       <c r="C123">
         <v>9</v>
       </c>
-      <c r="E123" t="s">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>113</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>3</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
         <v>73</v>
       </c>
-      <c r="C124">
+      <c r="C125">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
         <v>74</v>
       </c>
-      <c r="C125">
+      <c r="C126">
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
         <v>86</v>
       </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>3</v>
-      </c>
-      <c r="B127" t="s">
-        <v>87</v>
-      </c>
       <c r="C127">
         <v>0</v>
       </c>
+      <c r="D127" s="2"/>
       <c r="E127" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
